--- a/出席管理シート_template.xlsx
+++ b/出席管理シート_template.xlsx
@@ -20,6 +20,7 @@
   <si>
     <t>・これは出席管理シートのテンプレートです
 ・使用する際は例に倣って，3列目に学籍番号を入力してください．2列目は人間にわかりやすく名前を書いておくと良いですが，必須ではありません．
+・B2セルには遅刻を許容する時間を記入してください．
 ・1,2列目および3行目までは変更しないでください．プログラムの参照先が狂います．</t>
   </si>
   <si>
@@ -146,8 +147,8 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -479,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="7">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>6</v>

--- a/出席管理シート_template.xlsx
+++ b/出席管理シート_template.xlsx
@@ -679,15 +679,27 @@
       <c r="E3" s="14">
         <v>6.6122400205E10</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="F3" s="15">
+        <v>6.6122400809E10</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2.600210046E10</v>
+      </c>
+      <c r="H3" s="15">
+        <v>2.6002100486E10</v>
+      </c>
+      <c r="I3" s="15">
+        <v>2.6002100524E10</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2.600210071E10</v>
+      </c>
       <c r="K3" s="15">
         <v>2.6002103957E10</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="15">
+        <v>2.6002104058E10</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16"/>

--- a/出席管理シート_template.xlsx
+++ b/出席管理シート_template.xlsx
@@ -19,7 +19,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>・これは出席管理シートのテンプレートです
-・使用する際は例に倣って，3列目に学籍番号を入力してください．2列目は人間にわかりやすく名前を書いておくと良いですが，必須ではありません．
+・使用する際は例に倣って，3行目に学籍番号を入力してください．2行目は人間にわかりやすく名前を書いておくと良いですが，必須ではありません．
 ・B2セルには遅刻を許容する時間を記入してください．
 ・1,2列目および3行目までは変更しないでください．プログラムの参照先が狂います．</t>
   </si>
